--- a/target/classes/examples/土壤扬尘源.xlsx
+++ b/target/classes/examples/土壤扬尘源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_14A1DF1D6CB5FD02DF89B7764DDB7E4C05E8E8BF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F2C9C52-F315-403A-B0B6-C46673980499}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_14A1DF1D6CB5FD02DF89B7764DDB7E4C05E8E8BF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A16B11E-8C9E-A44E-9BB5-6974B31D627B}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="土壤扬尘" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>土壤扬尘源面积As（平方米）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,34 +69,6 @@
     <t>植被覆盖因子</t>
   </si>
   <si>
-    <t>PM10的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX的最大控制率（%）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3的最大控制率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PM10排放量</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -152,6 +124,50 @@
   </si>
   <si>
     <t>采取的控制措施（请对照右侧黄色部分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC的最大控制率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC的最大控制率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX的最大控制率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3的最大控制率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +223,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -237,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,9 +269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +276,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,40 +630,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26171875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5234375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.3671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.47265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.9453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.47265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.89453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7890625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.62890625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10.62890625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.89453125" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="1"/>
-    <col min="27" max="28" width="29.15625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="9" style="1"/>
+    <col min="29" max="30" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -663,55 +700,67 @@
         <v>13</v>
       </c>
       <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4">
         <v>1601000000</v>
       </c>
@@ -767,10 +816,10 @@
       <c r="S2" s="5">
         <v>0</v>
       </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
         <v>0</v>
       </c>
       <c r="V2" s="5">
@@ -788,11 +837,23 @@
       <c r="Z2" s="5">
         <v>0</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="14" customHeight="1">
       <c r="A3" s="4">
         <v>1601000000</v>
       </c>
@@ -848,10 +909,10 @@
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
         <v>0</v>
       </c>
       <c r="V3" s="5">
@@ -869,161 +930,211 @@
       <c r="Z3" s="5">
         <v>0</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="14" customHeight="1">
       <c r="A4" s="4"/>
       <c r="D4"/>
       <c r="P4" s="2"/>
       <c r="S4" s="3"/>
-      <c r="U4" s="1"/>
-      <c r="Y4"/>
-      <c r="AA4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="W4" s="1"/>
+      <c r="AA4"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="4"/>
       <c r="D5"/>
       <c r="P5" s="2"/>
       <c r="S5" s="3"/>
-      <c r="U5" s="1"/>
-      <c r="Y5"/>
-      <c r="AA5" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="1"/>
+      <c r="AA5"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="4"/>
       <c r="D6"/>
       <c r="P6" s="2"/>
       <c r="S6" s="3"/>
-      <c r="U6" s="1"/>
-      <c r="Y6"/>
-      <c r="AA6" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="W6" s="1"/>
+      <c r="AA6"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="4"/>
       <c r="D7"/>
       <c r="P7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="U7" s="1"/>
-      <c r="Y7"/>
-      <c r="AA7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="W7" s="1"/>
+      <c r="AA7"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="E8" s="4"/>
+      <c r="F8"/>
+      <c r="G8" s="4"/>
+      <c r="H8"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8"/>
+      <c r="S8" s="4"/>
+      <c r="T8"/>
+      <c r="U8" s="4"/>
+      <c r="V8"/>
+      <c r="W8" s="4"/>
+      <c r="X8"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8"/>
+      <c r="AA8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="4"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35">
       <c r="A10" s="4"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35">
       <c r="A11" s="4"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" ht="14" customHeight="1">
       <c r="A12" s="4"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="14" customHeight="1">
       <c r="A13" s="4"/>
       <c r="D13"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-    </row>
-    <row r="14" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+    </row>
+    <row r="14" spans="1:35" ht="14" customHeight="1">
       <c r="A14" s="4"/>
       <c r="D14"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-    </row>
-    <row r="15" spans="1:31" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+    </row>
+    <row r="15" spans="1:35" ht="14" customHeight="1">
       <c r="A15" s="4"/>
       <c r="D15"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" ht="15">
       <c r="A16" s="4"/>
       <c r="D16"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+    </row>
+    <row r="17" spans="1:35" ht="15">
       <c r="A17" s="4"/>
       <c r="D17"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-    </row>
-    <row r="18" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-    </row>
-    <row r="20" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-    </row>
-    <row r="21" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-    </row>
-    <row r="22" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-    </row>
-    <row r="23" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-    </row>
-    <row r="24" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-    </row>
-    <row r="25" spans="1:31" ht="15.3" x14ac:dyDescent="0.4">
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+    </row>
+    <row r="18" spans="1:35" ht="15">
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+    </row>
+    <row r="19" spans="1:35" ht="15">
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+    </row>
+    <row r="20" spans="1:35" ht="15">
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+    </row>
+    <row r="21" spans="1:35" ht="15">
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+    </row>
+    <row r="22" spans="1:35" ht="15">
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+    </row>
+    <row r="23" spans="1:35" ht="15">
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+    </row>
+    <row r="24" spans="1:35" ht="15">
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+    </row>
+    <row r="25" spans="1:35" ht="15">
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,233 +1151,233 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1284,7 +1395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/土壤扬尘源.xlsx
+++ b/target/classes/examples/土壤扬尘源.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_14A1DF1D6CB5FD02DF89B7764DDB7E4C05E8E8BF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A16B11E-8C9E-A44E-9BB5-6974B31D627B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117F6E0-FC3D-49B3-A45C-896D6F89AA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="土壤扬尘" sheetId="1" r:id="rId1"/>
     <sheet name="导入说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -178,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,16 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,42 +620,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.47265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.3125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.47265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.47265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.83984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.68359375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="10.68359375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83984375" style="1" customWidth="1"/>
     <col min="26" max="27" width="9" style="1"/>
-    <col min="29" max="30" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.3125" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -756,11 +746,8 @@
       <c r="AD1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1601000000</v>
       </c>
@@ -768,7 +755,7 @@
         <v>2015</v>
       </c>
       <c r="C2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2">
         <v>9487800</v>
@@ -791,7 +778,9 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2" t="s">
         <v>2</v>
       </c>
@@ -849,11 +838,8 @@
       <c r="AD2" s="6">
         <v>0</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="14" customHeight="1">
+    </row>
+    <row r="3" spans="1:30" ht="14.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1601000000</v>
       </c>
@@ -861,7 +847,7 @@
         <v>2015</v>
       </c>
       <c r="C3">
-        <v>650109</v>
+        <v>210102</v>
       </c>
       <c r="D3">
         <v>36364600</v>
@@ -884,7 +870,9 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
@@ -942,199 +930,6 @@
       <c r="AD3" s="6">
         <v>0</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="14" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="D4"/>
-      <c r="P4" s="2"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="W4" s="1"/>
-      <c r="AA4"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="4"/>
-      <c r="D5"/>
-      <c r="P5" s="2"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="W5" s="1"/>
-      <c r="AA5"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="4"/>
-      <c r="D6"/>
-      <c r="P6" s="2"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="10"/>
-      <c r="W6" s="1"/>
-      <c r="AA6"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="4"/>
-      <c r="D7"/>
-      <c r="P7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="W7" s="1"/>
-      <c r="AA7"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8"/>
-      <c r="E8" s="4"/>
-      <c r="F8"/>
-      <c r="G8" s="4"/>
-      <c r="H8"/>
-      <c r="I8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8"/>
-      <c r="S8" s="4"/>
-      <c r="T8"/>
-      <c r="U8" s="4"/>
-      <c r="V8"/>
-      <c r="W8" s="4"/>
-      <c r="X8"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8"/>
-      <c r="AA8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="4"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="4"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="4"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:35" ht="14" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:35" ht="14" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="D13"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-    </row>
-    <row r="14" spans="1:35" ht="14" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="D14"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-    </row>
-    <row r="15" spans="1:35" ht="14" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="D15"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-    </row>
-    <row r="16" spans="1:35" ht="15">
-      <c r="A16" s="4"/>
-      <c r="D16"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-    </row>
-    <row r="17" spans="1:35" ht="15">
-      <c r="A17" s="4"/>
-      <c r="D17"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-    </row>
-    <row r="18" spans="1:35" ht="15">
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-    </row>
-    <row r="19" spans="1:35" ht="15">
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-    </row>
-    <row r="20" spans="1:35" ht="15">
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-    </row>
-    <row r="21" spans="1:35" ht="15">
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-    </row>
-    <row r="22" spans="1:35" ht="15">
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-    </row>
-    <row r="23" spans="1:35" ht="15">
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-    </row>
-    <row r="24" spans="1:35" ht="15">
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-    </row>
-    <row r="25" spans="1:35" ht="15">
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,239 +940,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="15" max="15" width="27.1015625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="O6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="O10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="O11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1387,17 +1206,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>